--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/INDIANA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/INDIANA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1249"/>
+  <dimension ref="A1:D1243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C30">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C37">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C57">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C68">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C69">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C94">
@@ -1821,7 +1821,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C110">
@@ -1969,7 +1969,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C121">
@@ -1995,7 +1995,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2252,7 +2252,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C142">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C153">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C160">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C161">
@@ -2590,12 +2590,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C168">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C171">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C172">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C178">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C184">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C188">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C192">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C197">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C205">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C210">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C222">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C231">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C236">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C237">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C238">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C250">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C251">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C258">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C261">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C268">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C272">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C274">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C276">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C277">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C279">
@@ -4108,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C284">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C289">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C292">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C296">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C299">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C304">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C309">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C313">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C319">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C320">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C323">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C327">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C339">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C341">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C343">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C348">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C349">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C356">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C362">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C367">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C368">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C370">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C373">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C378">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C379">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C380">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C381">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C383">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C384">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C385">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C388">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C393">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C395">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C397">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C400">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C404">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C405">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C408">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C413">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C415">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C421">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C427">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C429">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C430">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C434">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C438">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C439">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C444">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C449">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C451">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C455">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C458">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C463">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C466">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C467">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C473">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C477">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C478">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C480">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C481">
@@ -6936,7 +6936,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C500">
@@ -6962,7 +6962,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C502">
@@ -7690,7 +7690,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C558">
@@ -7981,7 +7981,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C580">
@@ -8124,7 +8124,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C591">
@@ -8189,7 +8189,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C596">
@@ -8202,7 +8202,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C597">
@@ -8293,7 +8293,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C604">
@@ -8350,7 +8350,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C608">
@@ -8589,7 +8589,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C626">
@@ -8654,7 +8654,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C631">
@@ -8680,7 +8680,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C633">
@@ -8693,7 +8693,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C634">
@@ -8745,7 +8745,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C638">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C642">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C646">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C647">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C648">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C649">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C652">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C653">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C654">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C656">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C657">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C658">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C665">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C667">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C668">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C669">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C670">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C672">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C682">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C689">
@@ -9550,7 +9550,7 @@
         <v>97</v>
       </c>
       <c r="D699">
-        <v>0.009766411598872331</v>
+        <v>0.009766411598872333</v>
       </c>
     </row>
     <row r="700">
@@ -9764,7 +9764,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C716">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C722">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C731">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C732">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C738">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C742">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C792">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C793">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C794">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C795">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C796">
@@ -10843,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C799">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C800">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C801">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C802">
@@ -11069,7 +11069,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C816">
@@ -11108,7 +11108,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C819">
@@ -11277,7 +11277,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C832">
@@ -11290,7 +11290,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C833">
@@ -11394,7 +11394,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C841">
@@ -11472,14 +11472,14 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C847">
         <v>91</v>
       </c>
       <c r="D847">
-        <v>0.009162303664921465</v>
+        <v>0.009162303664921463</v>
       </c>
     </row>
     <row r="848">
@@ -11563,7 +11563,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C854">
@@ -11641,7 +11641,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C860">
@@ -11810,7 +11810,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C873">
@@ -11849,7 +11849,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C876">
@@ -11862,7 +11862,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C877">
@@ -11927,7 +11927,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C882">
@@ -12070,7 +12070,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C893">
@@ -12096,7 +12096,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C895">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C900">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C929">
@@ -12569,7 +12569,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C931">
@@ -12608,7 +12608,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C934">
@@ -12621,7 +12621,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C935">
@@ -12647,7 +12647,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C937">
@@ -12673,7 +12673,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C939">
@@ -12852,7 +12852,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C952">
@@ -12930,7 +12930,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C958">
@@ -12982,7 +12982,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C962">
@@ -13034,7 +13034,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C966">
@@ -13060,7 +13060,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C968">
@@ -13151,7 +13151,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C975">
@@ -13164,7 +13164,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C976">
@@ -13177,7 +13177,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C977">
@@ -13190,7 +13190,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C978">
@@ -13203,7 +13203,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C979">
@@ -13647,7 +13647,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1012">
@@ -14034,7 +14034,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1041">
@@ -14151,7 +14151,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1050">
@@ -14203,7 +14203,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1054">
@@ -14255,7 +14255,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1058">
@@ -14294,7 +14294,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1061">
@@ -14468,7 +14468,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1074">
@@ -14520,7 +14520,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1078">
@@ -14767,7 +14767,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1097">
@@ -14780,7 +14780,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1098">
@@ -14962,7 +14962,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1112">
@@ -14975,7 +14975,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1113">
@@ -15001,7 +15001,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1115">
@@ -15014,7 +15014,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1116">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1117">
@@ -15157,7 +15157,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1127">
@@ -15196,7 +15196,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1130">
@@ -15222,7 +15222,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1132">
@@ -15235,7 +15235,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1133">
@@ -15274,7 +15274,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1136">
@@ -15300,7 +15300,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1138">
@@ -15456,7 +15456,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1150">
@@ -15495,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1153">
@@ -15547,7 +15547,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1157">
@@ -15612,7 +15612,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1162">
@@ -15664,7 +15664,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1166">
@@ -15963,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1189">
@@ -16389,7 +16389,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1221">
@@ -16402,7 +16402,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1222">
@@ -16415,7 +16415,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1223">
@@ -16532,7 +16532,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1232">
@@ -16545,7 +16545,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1233">
@@ -16584,7 +16584,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1236">
@@ -16683,41 +16683,6 @@
       </c>
       <c r="D1243">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
